--- a/Site2/paper/analysis-v1.xlsx
+++ b/Site2/paper/analysis-v1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoton/Dropbox/Projects/ExplainTheUniverse/Site2/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A98E5-59C6-9F4F-8EF5-08D48DC53267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230B7EBE-571E-EF45-B38B-556BF749D83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="860" windowWidth="28700" windowHeight="22840" xr2:uid="{BA85C7D5-2029-644D-A8F8-1E8B53D5642B}"/>
+    <workbookView xWindow="10900" yWindow="860" windowWidth="27500" windowHeight="22840" xr2:uid="{BA85C7D5-2029-644D-A8F8-1E8B53D5642B}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmarks2" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$B$2:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$B$2:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="60">
   <si>
     <t>claude-3.7-sonnet-think</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ai</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>nm</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t xml:space="preserve">analytic idealism </t>
   </si>
   <si>
-    <t>uncertain</t>
-  </si>
-  <si>
     <t>Anthropic</t>
   </si>
   <si>
@@ -156,15 +150,9 @@
     <t>Findings</t>
   </si>
   <si>
-    <t xml:space="preserve">Analytic idealism is by far the preferred framework, figuring in 64% of the executions, while the second places are physicalism and neutral monism, both with 8% </t>
-  </si>
-  <si>
     <t>The only lab that prefers physicalism is Cohere, which is not a top lab</t>
   </si>
   <si>
-    <t>Only 1 of the 5 top lab does not prefer analytic idealism</t>
-  </si>
-  <si>
     <t>Considering the prompt asks for a rigorous academic evaluation in philosophy and physics, it is reasonable to expect a bias in the Ais training data towards the academia dominant paradigm: physicalism</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>neutral monism</t>
   </si>
   <si>
-    <t>panpyschism</t>
-  </si>
-  <si>
     <t>others</t>
   </si>
   <si>
@@ -223,6 +208,18 @@
   </si>
   <si>
     <t>Exec. 5</t>
+  </si>
+  <si>
+    <t>deepseek-v3-0324</t>
+  </si>
+  <si>
+    <t>Neutral monism is by far the preferred framework with 71%, followed by analytic idealism with 21% and panpsychism with 5%</t>
+  </si>
+  <si>
+    <t>panpsychism</t>
+  </si>
+  <si>
+    <t>Not a single execution in a total of 80 has chosen physicalism</t>
   </si>
 </sst>
 </file>
@@ -321,7 +318,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -334,6 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -341,7 +339,81 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -792,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2636DD-7EDB-A242-B7C6-B7D3FCE821E8}">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,19 +889,19 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
@@ -855,33 +927,33 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="3">
-        <f>COUNTIFS($C$3:$G$19,K3)</f>
-        <v>11</v>
+        <f>COUNTIFS($C$3:$G$18,K3)</f>
+        <v>17</v>
       </c>
       <c r="M3" s="4">
-        <f>L3/$L$9</f>
-        <v>0.29729729729729731</v>
+        <f>L3/$L$8</f>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -904,21 +976,21 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
-        <f>COUNTIFS($C$3:$G$19,K4)</f>
-        <v>23</v>
+        <f>COUNTIFS($C$3:$G$18,K4)</f>
+        <v>57</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M8" si="0">L4/$L$9</f>
-        <v>0.6216216216216216</v>
+        <f>L4/$L$8</f>
+        <v>0.71250000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -926,36 +998,36 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="3">
-        <f>COUNTIFS($C$3:$G$19,K5)</f>
-        <v>1</v>
+        <f>COUNTIFS($C$3:$G$18,K5)</f>
+        <v>4</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>2.7027027027027029E-2</v>
+        <f>L5/$L$8</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -963,35 +1035,35 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="3">
-        <f>COUNTIFS($C$3:$G$19,K6)</f>
+        <f>COUNTIFS($C$3:$G$18,K6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
+        <f>L6/$L$8</f>
         <v>0</v>
       </c>
     </row>
@@ -999,79 +1071,95 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3">
-        <f>COUNTIFS($C$3:$G$19,K7)</f>
+        <f>COUNTIFS($C$3:$G$18,K7)</f>
         <v>2</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>5.4054054054054057E-2</v>
+        <f>L7/$L$8</f>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="3">
-        <f>COUNTIFS($C$3:$G$19,K8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <f>SUM(L3:L7)</f>
+        <v>80</v>
+      </c>
+      <c r="M8" s="5">
+        <f>SUM(M3:M7)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <f>SUM(L3:L8)</f>
-        <v>37</v>
-      </c>
-      <c r="M9" s="5">
-        <f>SUM(M2:M6)</f>
-        <v>0.94594594594594583</v>
+        <v>28</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -1092,23 +1180,33 @@
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -1116,1040 +1214,1057 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="L14" s="10"/>
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="10"/>
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" s="10"/>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L17" s="10"/>
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
+      <c r="J19" s="9"/>
       <c r="L19" s="10"/>
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="N20" s="11"/>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="N21" s="11"/>
+      <c r="B21" s="3" t="str">
+        <f>H3</f>
+        <v>Google</v>
+      </c>
+      <c r="C21" s="3">
+        <f>COUNTIF($C3:$G3,C$20)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <f>COUNTIF($C3:$G3,D$20)</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <f>COUNTIF($C3:$G3,E$20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f>COUNTIF($C3:$G3,F$20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f>COUNTIF($C3:$G3,G$20)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <f>SUM(C21:G21)</f>
+        <v>5</v>
+      </c>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="str">
-        <f>H3</f>
-        <v>Google</v>
+        <f>H4</f>
+        <v>xAI</v>
       </c>
       <c r="C22" s="3">
-        <f>COUNTIF($C3:$G3,C$21)</f>
+        <f>COUNTIF($C4:$G4,C$20)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <f>COUNTIF($C4:$G4,D$20)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f>COUNTIF($C4:$G4,E$20)</f>
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <f>COUNTIF($C3:$G3,D$21)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <f>COUNTIF($C3:$G3,E$21)</f>
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <f>COUNTIF($C3:$G3,F$21)</f>
+        <f>COUNTIF($C4:$G4,F$20)</f>
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <f>COUNTIF($C3:$G3,G$21)</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <f>COUNTIF($C3:$G3,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C4:$G4,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:H36" si="0">SUM(C22:G22)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="str">
-        <f>H4</f>
-        <v>xAI</v>
+        <f>H5</f>
+        <v>OpenAI</v>
       </c>
       <c r="C23" s="3">
-        <f>COUNTIF($C4:$G4,C$21)</f>
-        <v>4</v>
+        <f>COUNTIF($C5:$G5,C$20)</f>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <f>COUNTIF($C4:$G4,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C5:$G5,D$20)</f>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <f>COUNTIF($C4:$G4,E$21)</f>
-        <v>1</v>
+        <f>COUNTIF($C5:$G5,E$20)</f>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f>COUNTIF($C4:$G4,F$21)</f>
+        <f>COUNTIF($C5:$G5,F$20)</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <f>COUNTIF($C4:$G4,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <f>COUNTIF($C4:$G4,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C5:$G5,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="str">
-        <f>H5</f>
+        <f>H6</f>
         <v>OpenAI</v>
       </c>
       <c r="C24" s="3">
-        <f>COUNTIF($C5:$G5,C$21)</f>
+        <f>COUNTIF($C6:$G6,C$20)</f>
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <f>COUNTIF($C5:$G5,D$21)</f>
+        <f>COUNTIF($C6:$G6,D$20)</f>
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <f>COUNTIF($C5:$G5,E$21)</f>
+        <f>COUNTIF($C6:$G6,E$20)</f>
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f>COUNTIF($C5:$G5,F$21)</f>
+        <f>COUNTIF($C6:$G6,F$20)</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f>COUNTIF($C5:$G5,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <f>COUNTIF($C5:$G5,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C6:$G6,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="str">
-        <f>H6</f>
-        <v>OpenAI</v>
+        <f>H7</f>
+        <v>DeepSeek</v>
       </c>
       <c r="C25" s="3">
-        <f>COUNTIF($C6:$G6,C$21)</f>
+        <f>COUNTIF($C7:$G7,C$20)</f>
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <f>COUNTIF($C6:$G6,D$21)</f>
+        <f>COUNTIF($C7:$G7,D$20)</f>
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <f>COUNTIF($C6:$G6,E$21)</f>
+        <f>COUNTIF($C7:$G7,E$20)</f>
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f>COUNTIF($C6:$G6,F$21)</f>
+        <f>COUNTIF($C7:$G7,F$20)</f>
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f>COUNTIF($C6:$G6,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <f>COUNTIF($C6:$G6,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C7:$G7,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="str">
-        <f t="shared" ref="B26:B38" si="1">H7</f>
-        <v>DeepSeek</v>
+        <f>H8</f>
+        <v>Alibaba</v>
       </c>
       <c r="C26" s="3">
-        <f>COUNTIF($C7:$G7,C$21)</f>
+        <f>COUNTIF($C8:$G8,C$20)</f>
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <f>COUNTIF($C7:$G7,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C8:$G8,D$20)</f>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <f>COUNTIF($C7:$G7,E$21)</f>
+        <f>COUNTIF($C8:$G8,E$20)</f>
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f>COUNTIF($C7:$G7,F$21)</f>
+        <f>COUNTIF($C8:$G8,F$20)</f>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f>COUNTIF($C7:$G7,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <f>COUNTIF($C7:$G7,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C8:$G8,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Alibaba</v>
+        <f>H9</f>
+        <v>Anthropic</v>
       </c>
       <c r="C27" s="3">
-        <f>COUNTIF($C8:$G8,C$21)</f>
+        <f>COUNTIF($C9:$G9,C$20)</f>
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <f>COUNTIF($C8:$G8,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C9:$G9,D$20)</f>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <f>COUNTIF($C8:$G8,E$21)</f>
+        <f>COUNTIF($C9:$G9,E$20)</f>
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f>COUNTIF($C8:$G8,F$21)</f>
+        <f>COUNTIF($C9:$G9,F$20)</f>
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <f>COUNTIF($C8:$G8,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <f>COUNTIF($C8:$G8,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C9:$G9,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Anthropic</v>
+        <f>H10</f>
+        <v>xAI</v>
       </c>
       <c r="C28" s="3">
-        <f>COUNTIF($C9:$G9,C$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C10:$G10,C$20)</f>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <f>COUNTIF($C9:$G9,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C10:$G10,D$20)</f>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
-        <f>COUNTIF($C9:$G9,E$21)</f>
+        <f>COUNTIF($C10:$G10,E$20)</f>
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <f>COUNTIF($C9:$G9,F$21)</f>
+        <f>COUNTIF($C10:$G10,F$20)</f>
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f>COUNTIF($C9:$G9,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <f>COUNTIF($C9:$G9,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C10:$G10,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>xAI</v>
+        <f>H11</f>
+        <v>DeepSeek</v>
       </c>
       <c r="C29" s="3">
-        <f>COUNTIF($C10:$G10,C$21)</f>
-        <v>4</v>
+        <f>COUNTIF($C11:$G11,C$20)</f>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
-        <f>COUNTIF($C10:$G10,D$21)</f>
-        <v>1</v>
+        <f>COUNTIF($C11:$G11,D$20)</f>
+        <v>2</v>
       </c>
       <c r="E29" s="3">
-        <f>COUNTIF($C10:$G10,E$21)</f>
+        <f>COUNTIF($C11:$G11,E$20)</f>
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <f>COUNTIF($C10:$G10,F$21)</f>
+        <f>COUNTIF($C11:$G11,F$20)</f>
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f>COUNTIF($C10:$G10,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <f>COUNTIF($C10:$G10,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C11:$G11,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>DeepSeek</v>
+        <f>H12</f>
+        <v>OpenAI</v>
       </c>
       <c r="C30" s="3">
-        <f>COUNTIF($C11:$G11,C$21)</f>
+        <f>COUNTIF($C12:$G12,C$20)</f>
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <f>COUNTIF($C11:$G11,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C12:$G12,D$20)</f>
+        <v>5</v>
       </c>
       <c r="E30" s="3">
-        <f>COUNTIF($C11:$G11,E$21)</f>
+        <f>COUNTIF($C12:$G12,E$20)</f>
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <f>COUNTIF($C11:$G11,F$21)</f>
+        <f>COUNTIF($C12:$G12,F$20)</f>
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f>COUNTIF($C11:$G11,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <f>COUNTIF($C11:$G11,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C12:$G12,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>H13</f>
         <v>OpenAI</v>
       </c>
       <c r="C31" s="3">
-        <f>COUNTIF($C12:$G12,C$21)</f>
+        <f>COUNTIF($C13:$G13,C$20)</f>
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <f>COUNTIF($C12:$G12,D$21)</f>
-        <v>2</v>
+        <f>COUNTIF($C13:$G13,D$20)</f>
+        <v>5</v>
       </c>
       <c r="E31" s="3">
-        <f>COUNTIF($C12:$G12,E$21)</f>
+        <f>COUNTIF($C13:$G13,E$20)</f>
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <f>COUNTIF($C12:$G12,F$21)</f>
+        <f>COUNTIF($C13:$G13,F$20)</f>
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <f>COUNTIF($C12:$G12,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <f>COUNTIF($C12:$G12,H$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C13:$G13,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>OpenAI</v>
+        <f t="shared" ref="B32:B36" si="1">H14</f>
+        <v>Anthropic</v>
       </c>
       <c r="C32" s="3">
-        <f>COUNTIF($C13:$G13,C$21)</f>
+        <f>COUNTIF($C14:$G14,C$20)</f>
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <f>COUNTIF($C13:$G13,D$21)</f>
+        <f>COUNTIF($C14:$G14,D$20)</f>
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <f>COUNTIF($C13:$G13,E$21)</f>
+        <f>COUNTIF($C14:$G14,E$20)</f>
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <f>COUNTIF($C13:$G13,F$21)</f>
+        <f>COUNTIF($C14:$G14,F$20)</f>
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <f>COUNTIF($C13:$G13,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <f>COUNTIF($C13:$G13,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+        <f>COUNTIF($C14:$G14,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Google</v>
       </c>
       <c r="C33" s="3">
-        <f>COUNTIF($C14:$G14,C$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C15:$G15,C$20)</f>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <f>COUNTIF($C14:$G14,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C15:$G15,D$20)</f>
+        <v>2</v>
       </c>
       <c r="E33" s="3">
-        <f>COUNTIF($C14:$G14,E$21)</f>
+        <f>COUNTIF($C15:$G15,E$20)</f>
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <f>COUNTIF($C14:$G14,F$21)</f>
+        <f>COUNTIF($C15:$G15,F$20)</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <f>COUNTIF($C14:$G14,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <f>COUNTIF($C14:$G14,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+        <f>COUNTIF($C15:$G15,G$20)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Anthropic</v>
+        <v>Meta</v>
       </c>
       <c r="C34" s="3">
-        <f>COUNTIF($C15:$G15,C$21)</f>
+        <f>COUNTIF($C16:$G16,C$20)</f>
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <f>COUNTIF($C15:$G15,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C16:$G16,D$20)</f>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
-        <f>COUNTIF($C15:$G15,E$21)</f>
+        <f>COUNTIF($C16:$G16,E$20)</f>
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <f>COUNTIF($C15:$G15,F$21)</f>
+        <f>COUNTIF($C16:$G16,F$20)</f>
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <f>COUNTIF($C15:$G15,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <f>COUNTIF($C15:$G15,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+        <f>COUNTIF($C16:$G16,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Google</v>
+        <v>xAI</v>
       </c>
       <c r="C35" s="3">
-        <f>COUNTIF($C16:$G16,C$21)</f>
+        <f>COUNTIF($C17:$G17,C$20)</f>
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <f>COUNTIF($C16:$G16,D$21)</f>
-        <v>2</v>
+        <f>COUNTIF($C17:$G17,D$20)</f>
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <f>COUNTIF($C16:$G16,E$21)</f>
+        <f>COUNTIF($C17:$G17,E$20)</f>
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <f>COUNTIF($C16:$G16,F$21)</f>
+        <f>COUNTIF($C17:$G17,F$20)</f>
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <f>COUNTIF($C16:$G16,G$21)</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <f>COUNTIF($C16:$G16,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+        <f>COUNTIF($C17:$G17,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Meta</v>
+        <v>Amazon</v>
       </c>
       <c r="C36" s="3">
-        <f>COUNTIF($C17:$G17,C$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C18:$G18,C$20)</f>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
-        <f>COUNTIF($C17:$G17,D$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C18:$G18,D$20)</f>
+        <v>1</v>
       </c>
       <c r="E36" s="3">
-        <f>COUNTIF($C17:$G17,E$21)</f>
-        <v>0</v>
+        <f>COUNTIF($C18:$G18,E$20)</f>
+        <v>3</v>
       </c>
       <c r="F36" s="3">
-        <f>COUNTIF($C17:$G17,F$21)</f>
+        <f>COUNTIF($C18:$G18,F$20)</f>
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <f>COUNTIF($C17:$G17,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <f>COUNTIF($C17:$G17,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>xAI</v>
-      </c>
-      <c r="C37" s="3">
-        <f>COUNTIF($C18:$G18,C$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <f>COUNTIF($C18:$G18,D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <f>COUNTIF($C18:$G18,E$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <f>COUNTIF($C18:$G18,F$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <f>COUNTIF($C18:$G18,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <f>COUNTIF($C18:$G18,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="C38" s="3">
-        <f>COUNTIF($C19:$G19,C$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <f>COUNTIF($C19:$G19,D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <f>COUNTIF($C19:$G19,E$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <f>COUNTIF($C19:$G19,F$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <f>COUNTIF($C19:$G19,G$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <f>COUNTIF($C19:$G19,H$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+        <f>COUNTIF($C18:$G18,G$20)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B39)</f>
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B39)</f>
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B39)</f>
+        <v>2</v>
+      </c>
+      <c r="H39" s="2">
+        <f>SUM(C39:G39)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B40)</f>
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B40)</f>
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B40)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <f>SUM(C40:G40)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B41)</f>
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B41)</f>
+        <v>20</v>
+      </c>
+      <c r="E41" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <f>SUM(C41:G41)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B42)</f>
         <v>3</v>
       </c>
-      <c r="D41" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B41)</f>
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B41)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B41)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B41)</f>
+      <c r="D42" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B42)</f>
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <f>SUM(C42:G42)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B43)</f>
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <f>SUM(C43:G43)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B44)</f>
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <f>SUM(C44:G44)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B45)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B45)</f>
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B45)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B45)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <f>SUM(C45:G45)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3">
+        <f>SUMIFS(C$21:C$36,$B$21:$B$36,$B46)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <f>SUMIFS(D$21:D$36,$B$21:$B$36,$B46)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <f>SUMIFS(E$21:E$36,$B$21:$B$36,$B46)</f>
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <f>SUMIFS(F$21:F$36,$B$21:$B$36,$B46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <f>SUMIFS(G$21:G$36,$B$21:$B$36,$B46)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <f>SUM(C46:G46)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2">
+        <f>SUM(C39:C46)</f>
+        <v>17</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:G47" si="2">SUM(D39:D46)</f>
+        <v>57</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H41" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B41)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B42)</f>
-        <v>8</v>
-      </c>
-      <c r="D42" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B42)</f>
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B42)</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B42)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B42)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B42)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <f>SUM(C41:H41)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B43)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B43)</f>
-        <v>17</v>
-      </c>
-      <c r="E43" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B43)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B43)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B43)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B43)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" ref="I43:I49" si="2">SUM(C42:H42)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B46)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B46)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B46)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B46)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B46)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B46)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B47)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B47)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B47)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B47)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B47)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B47)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="3">
-        <f>SUMIFS(C$22:C$38,$B$22:$B$38,$B48)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <f>SUMIFS(D$22:D$38,$B$22:$B$38,$B48)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <f>SUMIFS(E$22:E$38,$B$22:$B$38,$B48)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <f>SUMIFS(F$22:F$38,$B$22:$B$38,$B48)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <f>SUMIFS(G$22:G$38,$B$22:$B$38,$B48)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <f>SUMIFS(H$22:H$38,$B$22:$B$38,$B48)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="2">
-        <f>SUM(C41:C48)</f>
-        <v>11</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" ref="D49:H49" si="3">SUM(D41:D48)</f>
-        <v>23</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="2">
-        <f>SUM(I42:I49)</f>
-        <v>37</v>
+      <c r="H47" s="2">
+        <f>SUM(H39:H46)</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:M9">
-    <sortCondition ref="J5:J9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:M8">
+    <sortCondition ref="J5:J8"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C41:H49">
+  <conditionalFormatting sqref="K3:K8 C3:G18 K13:K19 J20">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"ai"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"ph"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N19 M20:M21">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04A35202-A393-A647-8E52-D2A04962D169}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18 H20">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Google"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5C493FDD-F85E-154E-8054-50450B0923F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:G36 G21:G36">
     <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62EE5F25-D4F1-604C-939B-A02A6C65E8ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:G47">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2162,45 +2277,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K7 K9 K14:K21 C3:G19">
-    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"ai"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"ph"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C493FDD-F85E-154E-8054-50450B0923F6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N21">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04A35202-A393-A647-8E52-D2A04962D169}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Google"</formula>
+  <conditionalFormatting sqref="C3:G18">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"nm"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,7 +2287,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{793E74F4-8ECF-6D45-8817-D4AD769B6B58}">
+          <x14:cfRule type="dataBar" id="{04A35202-A393-A647-8E52-D2A04962D169}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2218,7 +2297,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C41:H49</xm:sqref>
+          <xm:sqref>N14:N19 M20:M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C493FDD-F85E-154E-8054-50450B0923F6}">
@@ -2231,10 +2310,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M3:M9</xm:sqref>
+          <xm:sqref>M3:M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04A35202-A393-A647-8E52-D2A04962D169}">
+          <x14:cfRule type="dataBar" id="{62EE5F25-D4F1-604C-939B-A02A6C65E8ED}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2244,7 +2323,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N14:N21</xm:sqref>
+          <xm:sqref>C20:G36 G21:G36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{793E74F4-8ECF-6D45-8817-D4AD769B6B58}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C39:G47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2267,18 +2359,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>66</v>
@@ -2297,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
         <v>66</v>
@@ -2308,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
         <v>66</v>
@@ -2319,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
         <v>63</v>
@@ -2330,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>60</v>
@@ -2338,10 +2430,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
         <v>58</v>
@@ -2352,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>57</v>
@@ -2363,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>53</v>
@@ -2374,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <v>53</v>
@@ -2385,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>51</v>
@@ -2393,10 +2485,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <v>50</v>
@@ -2407,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3">
         <v>49</v>
@@ -2418,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>48</v>
@@ -2429,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3">
         <v>48</v>
@@ -2440,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>41</v>
@@ -2451,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3">
         <v>39</v>
@@ -2462,7 +2554,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3">
         <v>37</v>
@@ -2473,12 +2565,12 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2486,7 +2578,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2494,7 +2586,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -2502,7 +2594,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -2510,7 +2602,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -2518,7 +2610,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2526,7 +2618,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -2534,13 +2626,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
